--- a/doc/詳細設計/URL一覧_植物観察日記.xlsx
+++ b/doc/詳細設計/URL一覧_植物観察日記.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okamoto serina\Katachi Dropbox\miraino katachi\katachi【講師】\利用者さん課題\_実践課題仕様書セット\document-sample\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{72F9A774-F6D4-476B-9788-84A89C4E911D}"/>
+  <xr:revisionPtr revIDLastSave="333" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194D3FCA-5770-4A6F-B69F-3B9A69EA0AF3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -164,6 +164,9 @@
     <t>植物一覧表示（マイページ）</t>
   </si>
   <si>
+    <t>plant/mypage</t>
+  </si>
+  <si>
     <t>MyPageController</t>
   </si>
   <si>
@@ -173,7 +176,7 @@
     <t>植物を追加する。</t>
   </si>
   <si>
-    <t>/addplant</t>
+    <t>plant/add</t>
   </si>
   <si>
     <t>AddPlantController</t>
@@ -191,7 +194,7 @@
     <t>植物を削除する。</t>
   </si>
   <si>
-    <t>/deleteplant</t>
+    <t>plant/delete</t>
   </si>
   <si>
     <t>-</t>
@@ -206,40 +209,43 @@
     <t>植物詳細を表示する。</t>
   </si>
   <si>
+    <t>plant/detail</t>
+  </si>
+  <si>
+    <t>PlantDetailController</t>
+  </si>
+  <si>
+    <t>plantdetail.html</t>
+  </si>
+  <si>
+    <t>植物詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>植物詳細を修正する。</t>
+  </si>
+  <si>
+    <t>plant/edit</t>
+  </si>
+  <si>
+    <t>EditPlantController</t>
+  </si>
+  <si>
+    <t>editplant.html</t>
+  </si>
+  <si>
+    <t>植物修正画面を表示する。</t>
+  </si>
+  <si>
     <t>/plantdetail</t>
   </si>
   <si>
-    <t>PlantDetailController</t>
-  </si>
-  <si>
-    <t>plantdetail.html</t>
-  </si>
-  <si>
-    <t>植物詳細画面を表示する。</t>
-  </si>
-  <si>
-    <t>植物詳細を修正する。</t>
-  </si>
-  <si>
-    <t>/editplant</t>
-  </si>
-  <si>
-    <t>EditPlantController</t>
-  </si>
-  <si>
-    <t>editplant.html</t>
-  </si>
-  <si>
-    <t>植物修正画面を表示する。</t>
-  </si>
-  <si>
     <t>植物の更新処理を行う。</t>
   </si>
   <si>
     <t>植物観察日記を追加する。</t>
   </si>
   <si>
-    <t>/adddiary</t>
+    <t>diary/add</t>
   </si>
   <si>
     <t>AddDiaryController</t>
@@ -257,7 +263,7 @@
     <t>植物観察日記を削除する。</t>
   </si>
   <si>
-    <t>/deletediary</t>
+    <t>diary/delete</t>
   </si>
   <si>
     <t>植物観察日記の削除処理を行う。</t>
@@ -266,31 +272,34 @@
     <t>植物観察日記詳細を表示する。</t>
   </si>
   <si>
+    <t>diary/detail</t>
+  </si>
+  <si>
+    <t>DiaryDetailController</t>
+  </si>
+  <si>
+    <t>diarydetail.html</t>
+  </si>
+  <si>
+    <t>植物観察日記詳細画面を表示する。</t>
+  </si>
+  <si>
+    <t>植物観察日記を修正する。</t>
+  </si>
+  <si>
+    <t>diary/edit</t>
+  </si>
+  <si>
+    <t>EditDiaryController</t>
+  </si>
+  <si>
+    <t>editdiary.html</t>
+  </si>
+  <si>
+    <t>植物観察日記修正画面を表示する。</t>
+  </si>
+  <si>
     <t>/diarydetail</t>
-  </si>
-  <si>
-    <t>DiaryDetailController</t>
-  </si>
-  <si>
-    <t>diarydetail.html</t>
-  </si>
-  <si>
-    <t>植物観察日記詳細画面を表示する。</t>
-  </si>
-  <si>
-    <t>植物観察日記を修正する。</t>
-  </si>
-  <si>
-    <t>/editdiary</t>
-  </si>
-  <si>
-    <t>EditDiaryController</t>
-  </si>
-  <si>
-    <t>editdiary.html</t>
-  </si>
-  <si>
-    <t>植物観察日記修正画面を表示する。</t>
   </si>
   <si>
     <t>植物観察日記の更新処理を行う。</t>
@@ -464,17 +473,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -483,31 +513,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,25 +835,25 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5:B6"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5"/>
   <cols>
-    <col min="1" max="1" width="19" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" style="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.77734375" customWidth="1"/>
     <col min="9" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -862,7 +871,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -870,13 +879,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -888,15 +897,15 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="12"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
@@ -906,31 +915,31 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="10" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="63.75" customHeight="1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="10" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -938,13 +947,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -956,15 +965,15 @@
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="12"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -974,7 +983,7 @@
       <c r="F6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="H6" s="2"/>
@@ -998,69 +1007,69 @@
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="13" t="s">
+      <c r="E8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="16"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" ht="16.5">
-      <c r="A10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="9" t="s">
+      <c r="A10" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="16" t="s">
         <v>39</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>41</v>
+      <c r="G10" s="10" t="s">
+        <v>42</v>
       </c>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" ht="16.5">
-      <c r="A11" s="12"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
       <c r="D11" s="2" t="s">
         <v>15</v>
       </c>
@@ -1070,372 +1079,372 @@
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>42</v>
+      <c r="G11" s="10" t="s">
+        <v>43</v>
       </c>
       <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D12" s="9" t="s">
+      <c r="B12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" s="9" t="s">
+      <c r="E12" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="11" t="s">
+      <c r="G12" s="16" t="s">
         <v>47</v>
       </c>
+      <c r="H12" s="14" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A13" s="12"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8" ht="16.5">
-      <c r="A14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="A14" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="C14" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="13" t="s">
+      <c r="E14" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="G14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="12"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="9" t="s">
+      <c r="A16" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="16" t="s">
         <v>55</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>56</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G16" s="5" t="s">
+      <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="H16" s="5"/>
+      <c r="F16" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="16.5">
-      <c r="A17" s="12"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G17" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>60</v>
       </c>
       <c r="H17" s="2"/>
     </row>
     <row r="18" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A18" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="A18" s="14" t="s">
         <v>61</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="19" t="s">
-        <v>62</v>
+      <c r="E18" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G18" s="16" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A19" s="12"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>64</v>
+        <v>59</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="41.25" customHeight="1">
       <c r="A20" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="A21" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="B21" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F21" s="13" t="s">
+      <c r="E21" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="H21" s="9"/>
+      <c r="G21" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="12"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="A22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
     </row>
     <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="9" t="s">
+      <c r="A23" s="14" t="s">
         <v>75</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>77</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H23" s="5"/>
+      <c r="E23" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
       <c r="D24" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="15" t="s">
-        <v>45</v>
+      <c r="E24" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G24" s="16" t="s">
-        <v>78</v>
+        <v>80</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>81</v>
       </c>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="1:8" ht="40.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" s="16" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>86</v>
       </c>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>86</v>
+      <c r="A26" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G26" s="16" t="s">
-        <v>88</v>
+        <v>90</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>91</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="21" customHeight="1">
-      <c r="A27" s="12"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
+      <c r="A27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
       <c r="D27" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>45</v>
+      <c r="E27" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G27" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="24" customHeight="1">
-      <c r="A28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>92</v>
+      <c r="A28" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F28" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" s="16" t="s">
-        <v>94</v>
+      <c r="E28" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>97</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A29" s="12"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="15" t="s">
-        <v>45</v>
+      <c r="E29" s="9" t="s">
+        <v>46</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="16" t="s">
-        <v>95</v>
+      <c r="G29" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="H29" s="2"/>
     </row>
@@ -1444,12 +1453,43 @@
     <row r="32" spans="1:8" ht="16.5"/>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
     <mergeCell ref="F21:F22"/>
     <mergeCell ref="G21:G22"/>
     <mergeCell ref="H21:H22"/>
@@ -1461,46 +1501,15 @@
     <mergeCell ref="C21:C22"/>
     <mergeCell ref="D21:D22"/>
     <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360"/>
 </worksheet>
 </file>
--- a/doc/詳細設計/URL一覧_植物観察日記.xlsx
+++ b/doc/詳細設計/URL一覧_植物観察日記.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28103"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okamoto serina\Katachi Dropbox\miraino katachi\katachi【講師】\利用者さん課題\_実践課題仕様書セット\document-sample\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="333" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{194D3FCA-5770-4A6F-B69F-3B9A69EA0AF3}"/>
+  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614CB828-15E4-49F2-A308-ACBB65402676}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -80,7 +80,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/login</t>
+    <t>user/login</t>
   </si>
   <si>
     <t>LoginController</t>
@@ -116,7 +116,7 @@
     <t>ログアウト</t>
   </si>
   <si>
-    <t>/logout</t>
+    <t>user/logout</t>
   </si>
   <si>
     <t>SecurityConfig</t>
@@ -134,7 +134,7 @@
     <t>新規登録</t>
   </si>
   <si>
-    <t>/signup</t>
+    <t>user/signup</t>
   </si>
   <si>
     <t>SignupController</t>
@@ -146,6 +146,9 @@
     <t>新規登録フォームを表示する。</t>
   </si>
   <si>
+    <t>plant/mypage</t>
+  </si>
+  <si>
     <t>新規アカウントの登録処理を行う。</t>
   </si>
   <si>
@@ -164,15 +167,30 @@
     <t>植物一覧表示（マイページ）</t>
   </si>
   <si>
-    <t>plant/mypage</t>
-  </si>
-  <si>
     <t>MyPageController</t>
   </si>
   <si>
     <t>mypage.html</t>
   </si>
   <si>
+    <t>植物一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>ログイン後、自身の植物一覧画面の場合。</t>
+  </si>
+  <si>
+    <t>植物一覧表示（他ユーザー）</t>
+  </si>
+  <si>
+    <t>plant/other/{id}</t>
+  </si>
+  <si>
+    <t>他ユーザーの植物一覧画面を表示する。</t>
+  </si>
+  <si>
+    <t>ログイン有無にかかわらず、他のユーザーの植物一覧画面の場合。</t>
+  </si>
+  <si>
     <t>植物を追加する。</t>
   </si>
   <si>
@@ -308,40 +326,43 @@
     <t>アカウント設定画面を表示する。</t>
   </si>
   <si>
+    <t>setting/account</t>
+  </si>
+  <si>
+    <t>AccountController</t>
+  </si>
+  <si>
+    <t>account.html</t>
+  </si>
+  <si>
+    <t>設定メニューの一覧表示。</t>
+  </si>
+  <si>
+    <t>パスワードを変更する。</t>
+  </si>
+  <si>
+    <t>setting/pass</t>
+  </si>
+  <si>
+    <t>PassController</t>
+  </si>
+  <si>
+    <t>pass.html</t>
+  </si>
+  <si>
+    <t>パスワード設定画面を表示する。</t>
+  </si>
+  <si>
     <t>/account</t>
   </si>
   <si>
-    <t>AccountController</t>
-  </si>
-  <si>
-    <t>account.html</t>
-  </si>
-  <si>
-    <t>設定メニューの一覧表示。</t>
-  </si>
-  <si>
-    <t>パスワードを変更する。</t>
-  </si>
-  <si>
-    <t>/pass</t>
-  </si>
-  <si>
-    <t>PassController</t>
-  </si>
-  <si>
-    <t>pass.html</t>
-  </si>
-  <si>
-    <t>パスワード設定画面を表示する。</t>
-  </si>
-  <si>
     <t>パスワードの更新処理を行う。</t>
   </si>
   <si>
     <t>プロフィールを設定する。</t>
   </si>
   <si>
-    <t>/profile</t>
+    <t>setting/profile</t>
   </si>
   <si>
     <t>ProfileController</t>
@@ -482,23 +503,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -832,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D07D3479-17DF-4455-A7E5-709A6A27D346}">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:B9"/>
+      <pane ySplit="1" topLeftCell="C7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5"/>
@@ -847,7 +868,7 @@
     <col min="4" max="4" width="20.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.5546875" customWidth="1"/>
-    <col min="7" max="7" width="35.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="35.77734375" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="28.77734375" customWidth="1"/>
     <col min="9" max="14" width="11.5546875" customWidth="1"/>
   </cols>
@@ -871,7 +892,7 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -897,7 +918,7 @@
       <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>14</v>
       </c>
       <c r="H2" s="2"/>
@@ -915,7 +936,7 @@
       <c r="F3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H3" s="2"/>
@@ -924,22 +945,22 @@
       <c r="A4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="8" t="s">
         <v>22</v>
       </c>
       <c r="H4" s="3" t="s">
@@ -965,7 +986,7 @@
       <c r="F5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
       <c r="H5" s="2"/>
@@ -981,41 +1002,41 @@
         <v>13</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
         <v>29</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" ht="42" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="10"/>
+      <c r="G7" s="8"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>36</v>
@@ -1029,8 +1050,12 @@
       <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="10"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
       <c r="A9" s="15"/>
@@ -1039,52 +1064,46 @@
       <c r="D9" s="17"/>
       <c r="E9" s="17"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
+    </row>
+    <row r="10" spans="1:8" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="E10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5">
+      <c r="H10" s="14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="19.5" customHeight="1">
       <c r="A11" s="15"/>
       <c r="B11" s="17"/>
       <c r="C11" s="17"/>
-      <c r="D11" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="19.5" customHeight="1">
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
@@ -1092,135 +1111,135 @@
         <v>45</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F12" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="16" t="s">
+      <c r="D12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="F12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="16.5">
       <c r="A13" s="15"/>
       <c r="B13" s="17"/>
       <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="15"/>
-    </row>
-    <row r="14" spans="1:8" ht="16.5">
+      <c r="D13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="18" t="s">
-        <v>13</v>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="16"/>
+      <c r="H14" s="14" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
       <c r="A15" s="15"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
       <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="17"/>
       <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="1:8" ht="19.5" customHeight="1">
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16" spans="1:8" ht="16.5">
       <c r="A16" s="14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="E16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5">
+      <c r="F16" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" customHeight="1">
       <c r="A17" s="15"/>
       <c r="B17" s="17"/>
       <c r="C17" s="17"/>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" s="10" t="s">
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="C18" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="1:8" ht="22.5" customHeight="1">
+      <c r="H18" s="12"/>
+    </row>
+    <row r="19" spans="1:8" ht="16.5">
       <c r="A19" s="15"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -1228,185 +1247,185 @@
         <v>15</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G19" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>66</v>
       </c>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" ht="41.25" customHeight="1">
-      <c r="A20" s="3" t="s">
+    <row r="20" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>51</v>
+      <c r="C20" s="16" t="s">
+        <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" ht="22.5" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="16.5">
-      <c r="A21" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" s="16" t="s">
+      <c r="E21" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="1:8" ht="41.25" customHeight="1">
+      <c r="A22" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5">
+      <c r="A23" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E21" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="18" t="s">
+      <c r="E23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A22" s="15"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A23" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H23" s="8"/>
-    </row>
-    <row r="24" spans="1:8" ht="21.75" customHeight="1">
+      <c r="G23" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" customHeight="1">
       <c r="A24" s="15"/>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="10" t="s">
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" customHeight="1">
+      <c r="A25" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" ht="40.5" customHeight="1">
-      <c r="A25" s="3" t="s">
+      <c r="B25" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G25" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F25" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="10" t="s">
+      <c r="H25" s="12"/>
+    </row>
+    <row r="26" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A26" s="14" t="s">
+      <c r="G26" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" ht="40.5" customHeight="1">
+      <c r="A27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="B27" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="C27" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="10" t="s">
+      <c r="E27" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" ht="21" customHeight="1">
-      <c r="A27" s="15"/>
-      <c r="B27" s="17"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="10" t="s">
+      <c r="F27" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="8" t="s">
         <v>92</v>
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:8" ht="24" customHeight="1">
+    <row r="28" spans="1:8" ht="20.25" customHeight="1">
       <c r="A28" s="14" t="s">
         <v>93</v>
       </c>
@@ -1419,49 +1438,101 @@
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="10" t="s">
+      <c r="F28" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="8" t="s">
         <v>97</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="21.75" customHeight="1">
+    <row r="29" spans="1:8" ht="21" customHeight="1">
       <c r="A29" s="15"/>
       <c r="B29" s="17"/>
       <c r="C29" s="17"/>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>46</v>
+      <c r="E29" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" ht="24" customHeight="1">
+      <c r="A30" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="1:8" ht="21.75" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" ht="16.5"/>
-    <row r="31" spans="1:8" ht="16.5"/>
+      <c r="G31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="2"/>
+    </row>
     <row r="32" spans="1:8" ht="16.5"/>
+    <row r="33" ht="16.5"/>
+    <row r="34" ht="16.5"/>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="64">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
@@ -1474,39 +1545,39 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="G14:G15"/>
     <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A18:A19"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
     <mergeCell ref="A23:A24"/>
     <mergeCell ref="B23:B24"/>
     <mergeCell ref="C23:C24"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
     <mergeCell ref="A28:A29"/>
     <mergeCell ref="B28:B29"/>
     <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/詳細設計/URL一覧_植物観察日記.xlsx
+++ b/doc/詳細設計/URL一覧_植物観察日記.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28122"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28224"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okamoto serina\Katachi Dropbox\miraino katachi\katachi【講師】\利用者さん課題\_実践課題仕様書セット\document-sample\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614CB828-15E4-49F2-A308-ACBB65402676}"/>
+  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAD6407-A661-4C1F-AA94-673E7FB9EF7D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -200,7 +200,7 @@
     <t>AddPlantController</t>
   </si>
   <si>
-    <t>addplant.html</t>
+    <t>plant/add.html</t>
   </si>
   <si>
     <t>植物追加画面を表示する。</t>
@@ -227,13 +227,13 @@
     <t>植物詳細を表示する。</t>
   </si>
   <si>
-    <t>plant/detail</t>
+    <t>plant/detail/{id}</t>
   </si>
   <si>
     <t>PlantDetailController</t>
   </si>
   <si>
-    <t>plantdetail.html</t>
+    <t>plant/detail.html</t>
   </si>
   <si>
     <t>植物詳細画面を表示する。</t>
@@ -248,7 +248,7 @@
     <t>EditPlantController</t>
   </si>
   <si>
-    <t>editplant.html</t>
+    <t>plant/edit.html</t>
   </si>
   <si>
     <t>植物修正画面を表示する。</t>
@@ -269,7 +269,7 @@
     <t>AddDiaryController</t>
   </si>
   <si>
-    <t>adddiary.html</t>
+    <t>diary/add.html</t>
   </si>
   <si>
     <t>植物観察日記追加画面を表示する。</t>
@@ -290,13 +290,13 @@
     <t>植物観察日記詳細を表示する。</t>
   </si>
   <si>
-    <t>diary/detail</t>
+    <t>diary/detail/{id}</t>
   </si>
   <si>
     <t>DiaryDetailController</t>
   </si>
   <si>
-    <t>diarydetail.html</t>
+    <t>diary/detail.html</t>
   </si>
   <si>
     <t>植物観察日記詳細画面を表示する。</t>
@@ -311,7 +311,7 @@
     <t>EditDiaryController</t>
   </si>
   <si>
-    <t>editdiary.html</t>
+    <t>diary/edit.html</t>
   </si>
   <si>
     <t>植物観察日記修正画面を表示する。</t>
@@ -522,16 +522,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -856,8 +856,8 @@
   <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="C7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5"/>
@@ -900,13 +900,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -924,9 +924,9 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="15"/>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
@@ -968,13 +968,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="s">
+      <c r="C5" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -992,9 +992,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="15"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1032,85 +1032,85 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="16" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="17"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="17"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C12" s="14" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1127,10 +1127,10 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" ht="16.5">
-      <c r="A13" s="15"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="17"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1146,83 +1146,83 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="14" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="16" t="s">
+      <c r="F14" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
+      <c r="A15" s="17"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="17"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="G16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="16"/>
+      <c r="H16" s="14"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+      <c r="A17" s="17"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1240,9 +1240,9 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="15"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1258,13 +1258,13 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1282,9 +1282,9 @@
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="15"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="17"/>
+      <c r="A21" s="17"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1326,47 +1326,47 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="16" t="s">
+      <c r="D23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="16" t="s">
+      <c r="E23" s="14" t="s">
         <v>79</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="G23" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H23" s="16"/>
+      <c r="H23" s="14"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="15"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>83</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -1384,9 +1384,9 @@
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A26" s="15"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1426,13 +1426,13 @@
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="16" t="s">
+      <c r="B28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="16" t="s">
+      <c r="C28" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -1450,9 +1450,9 @@
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
-      <c r="A29" s="15"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="17"/>
+      <c r="A29" s="17"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1468,13 +1468,13 @@
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -1492,9 +1492,9 @@
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A31" s="15"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="17"/>
+      <c r="A31" s="17"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1514,53 +1514,12 @@
     <row r="34" ht="16.5"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
     <mergeCell ref="F23:F24"/>
     <mergeCell ref="G23:G24"/>
     <mergeCell ref="H23:H24"/>
@@ -1572,12 +1531,53 @@
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="D23:D24"/>
     <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/詳細設計/URL一覧_植物観察日記.xlsx
+++ b/doc/詳細設計/URL一覧_植物観察日記.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okamoto serina\Katachi Dropbox\miraino katachi\katachi【講師】\利用者さん課題\_実践課題仕様書セット\document-sample\03.詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="368" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FAD6407-A661-4C1F-AA94-673E7FB9EF7D}"/>
+  <xr:revisionPtr revIDLastSave="374" documentId="13_ncr:1_{A62FCDFB-E5C1-4AD2-9104-7799AEA9EE9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7C7A6B9-6304-4EC6-AE83-42A23C1C1F41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0592B935-CA25-7640-82FA-5113A96B9079}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="107">
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
@@ -212,7 +212,7 @@
     <t>植物を削除する。</t>
   </si>
   <si>
-    <t>plant/delete</t>
+    <t>plant/delete/{id}</t>
   </si>
   <si>
     <t>-</t>
@@ -242,7 +242,7 @@
     <t>植物詳細を修正する。</t>
   </si>
   <si>
-    <t>plant/edit</t>
+    <t>plant/edit/{id}</t>
   </si>
   <si>
     <t>EditPlantController</t>
@@ -263,7 +263,7 @@
     <t>植物観察日記を追加する。</t>
   </si>
   <si>
-    <t>diary/add</t>
+    <t>diary/add/{id}</t>
   </si>
   <si>
     <t>AddDiaryController</t>
@@ -275,13 +275,16 @@
     <t>植物観察日記追加画面を表示する。</t>
   </si>
   <si>
+    <t>{id}は植物ID</t>
+  </si>
+  <si>
     <t>植物観察日記の登録処理を行う。</t>
   </si>
   <si>
     <t>植物観察日記を削除する。</t>
   </si>
   <si>
-    <t>diary/delete</t>
+    <t>diary/delete/{id}</t>
   </si>
   <si>
     <t>植物観察日記の削除処理を行う。</t>
@@ -305,7 +308,7 @@
     <t>植物観察日記を修正する。</t>
   </si>
   <si>
-    <t>diary/edit</t>
+    <t>diary/edit/{id}</t>
   </si>
   <si>
     <t>EditDiaryController</t>
@@ -522,16 +525,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,7 +860,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="19.5"/>
@@ -900,13 +903,13 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -924,9 +927,9 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="17"/>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
+      <c r="A3" s="15"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
@@ -968,13 +971,13 @@
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -992,9 +995,9 @@
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" ht="19.899999999999999" customHeight="1">
-      <c r="A6" s="17"/>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
+      <c r="A6" s="15"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
       <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1032,85 +1035,85 @@
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="14" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
+      <c r="A9" s="15"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="19"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="14" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
+      <c r="A11" s="15"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="16" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1128,9 +1131,9 @@
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="17"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="A13" s="15"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
       <c r="D13" s="2" t="s">
         <v>15</v>
       </c>
@@ -1146,83 +1149,83 @@
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="H14" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
       <c r="E15" s="19"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8" ht="16.5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="H16" s="14"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="19"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
     </row>
     <row r="18" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="16" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1240,9 +1243,9 @@
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8" ht="16.5">
-      <c r="A19" s="17"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
       <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
@@ -1258,13 +1261,13 @@
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C20" s="16" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -1279,12 +1282,14 @@
       <c r="G20" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="H20" s="2"/>
+      <c r="H20" s="2" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="22.5" customHeight="1">
-      <c r="A21" s="17"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
+      <c r="A21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="2" t="s">
         <v>15</v>
       </c>
@@ -1295,16 +1300,16 @@
         <v>65</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" ht="41.25" customHeight="1">
       <c r="A22" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>57</v>
@@ -1319,74 +1324,74 @@
         <v>65</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="16.5">
-      <c r="A23" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="14" t="s">
+      <c r="A23" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="B23" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="C23" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>79</v>
+      <c r="E23" s="16" t="s">
+        <v>80</v>
       </c>
       <c r="F23" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G23" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="H23" s="14"/>
+      <c r="G23" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A24" s="17"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
+      <c r="A24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="19"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="15"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
     </row>
     <row r="25" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A25" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B25" s="14" t="s">
+      <c r="A25" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="B25" s="16" t="s">
         <v>83</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>84</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A26" s="17"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
+      <c r="A26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="2" t="s">
         <v>15</v>
       </c>
@@ -1394,65 +1399,65 @@
         <v>52</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:8" ht="40.5" customHeight="1">
       <c r="A27" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1">
-      <c r="A28" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28" s="14" t="s">
+      <c r="A28" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>95</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F28" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:8" ht="21" customHeight="1">
-      <c r="A29" s="17"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
+      <c r="A29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
       <c r="D29" s="2" t="s">
         <v>15</v>
       </c>
@@ -1460,41 +1465,41 @@
         <v>52</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" ht="24" customHeight="1">
-      <c r="A30" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B30" s="14" t="s">
+      <c r="A30" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="B30" s="16" t="s">
         <v>102</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E30" s="12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F30" s="13" t="s">
         <v>52</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="1:8" ht="21.75" customHeight="1">
-      <c r="A31" s="17"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2" t="s">
         <v>15</v>
       </c>
@@ -1505,7 +1510,7 @@
         <v>16</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H31" s="2"/>
     </row>
@@ -1514,57 +1519,6 @@
     <row r="34" ht="16.5"/>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A11"/>
@@ -1578,6 +1532,57 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
